--- a/data/trans_bre/P12B1_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,72</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-25,27%</t>
         </is>
       </c>
     </row>
@@ -652,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-11,29; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; 5,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,59</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>61,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>389,96%</t>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>80,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,15; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 91,09</t>
+          <t>-13,24; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 100,0</t>
+          <t>-4,5; 6,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,08</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-6,12%</t>
         </is>
       </c>
     </row>
@@ -802,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 25,49</t>
+          <t>-10,05; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,17</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>134,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>147,62%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,08; 46,46</t>
+          <t>-2,55; 5,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 56,04</t>
+          <t>-4,88; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 53,6</t>
+          <t>-6,83; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,6; 319,21</t>
+          <t>-1,9; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 288,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 308,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,22</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,68</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>247,2%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>171,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 72,99</t>
+          <t>-5,21; 14,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 81,54</t>
+          <t>-2,07; 15,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-45,79; 34,04</t>
+          <t>-8,3; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 640,39</t>
+          <t>-9,22; 11,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,16; 77,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-80,7; 398,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-78,89; 457,33</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>-10,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,58%</t>
+          <t>-54,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,04%</t>
+          <t>-2,59%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-47,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>94,53%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 43,79</t>
+          <t>-25,39; 4,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 0,0</t>
+          <t>-12,99; 13,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 0,0</t>
+          <t>-19,73; 6,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 77,46</t>
+          <t>-6,51; 43,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 0,0</t>
+          <t>-88,76; 91,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 0,0</t>
+          <t>-80,96; 542,29</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 226,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-55,8; 968,4</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-29,02%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>99,77%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 36,25</t>
+          <t>-2,86; 2,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 44,62</t>
+          <t>-2,63; 2,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 42,98</t>
+          <t>-4,56; 1,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 117,48</t>
+          <t>-0,37; 11,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 184,91</t>
+          <t>-57,15; 135,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 160,74</t>
+          <t>-62,16; 135,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-70,58; 43,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 492,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P12B1_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-25,27%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.911018515748099</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.7908554413921514</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.212589364927796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,29; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 5,86</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-11.14584716809148</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.76856581356254</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.008247383938637</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>80,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,24; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 6,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.511864521018984</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.686523415530851</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.607935386708386</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.9354708403126796</v>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>-14.99035653958123</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.71488287926049</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 7,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.629044574481345</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.031850952680134</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +779,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>134,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,31%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>147,62%</t>
+      <c r="C10" s="5" t="n">
+        <v>2.489872037179112</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.793933006497277</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.825965068369489</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,254 +810,136 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 5,97</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 5,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 5,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 6,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.7551384828326207</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-8.950150541582572</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.46580349492177</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.829441051578815</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>72,27%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>171,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 14,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 15,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; 10,96</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; 11,87</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-80,7; 398,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-78,89; 457,33</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.422076567510834</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8906476096897789</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1545851327309812</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.040321120366327</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.114251810993678</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.3840275311959753</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.03628791334966988</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.649469595482957</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-10,81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,67</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-54,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-47,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>94,53%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.685953736668945</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.66166979640338</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.775699114041873</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.691777933508629</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-25,39; 4,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,99; 13,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,73; 6,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 43,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-88,76; 91,73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-80,96; 542,29</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 226,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-55,8; 968,4</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.272035271781183</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.49622263051242</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.937166542948645</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.096414450295699</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +947,289 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,16%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-29,02%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>99,77%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.866382400747032</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.68286848821612</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.016687665634646</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.2340411212623378</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.8578769591239727</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>2.071622324336985</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.1486812285547952</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.02776318062312285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,56</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 2,17</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 1,15</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 11,25</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-57,15; 135,26</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-62,16; 135,62</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-70,58; 43,34</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-21,03; 492,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-4.263731561446473</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.321416650901117</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.629380703256786</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-10.08129548639663</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-0.8081425634285321</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.7966964985916493</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.49152720910787</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.0022361042774</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.6713416721894</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>11.21321648424237</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>4.225945171554208</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>4.437151449833618</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-8.989657380406268</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.90644515595122</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-7.509118724553233</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>11.10339832948103</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.502062658103561</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.1838333498800699</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.5514723064138091</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.9322559675710682</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-22.68386152606152</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-11.38449611835564</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-21.82408469753245</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-6.403169715030662</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.8771286697474079</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.7799369667009988</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5852741268580012</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>5.528619789556494</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>17.12229198332158</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.285118080108888</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>40.90692483405044</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.065587968138637</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>7.054123908574362</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.982242839639167</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>8.940761161213096</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.02655593051227728</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2459540525097538</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.286962085708756</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3.441543927837216</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.008314646555365787</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.08506203127477847</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.2951753954276393</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.9876031329733255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.410395682317144</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.168610606651675</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.492262174376683</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.4452508431814826</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.5583535220009042</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.5647470988706216</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.7196491174986616</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2086831216310459</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.462195349659728</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.748957205325097</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.032343333611572</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.716122920341492</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.421489324666154</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.727564894311741</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.3541266925519981</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>4.495671201792926</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1237,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
